--- a/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{786FF477-0712-4047-A1BC-58B82F6CC6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{531F897F-413E-409D-B11F-C0B6860DF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E22C82D-1C46-4A91-AA1E-51CCB88FE958}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69FB6E9-A72C-4CFB-B688-B5280105652D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>34,16%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>53,29%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,61 +482,61 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>7,57%</t>
   </si>
   <si>
     <t>12,27%</t>
@@ -545,1048 +545,1048 @@
     <t>20,27%</t>
   </si>
   <si>
-    <t>16,95%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>32,78%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,98%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>72,02%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F95BEA-D3D9-4EB4-97E9-2AD6150D8B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D44BE-A988-445E-A0EC-0DDECFED6B46}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3130,7 +3130,7 @@
         <v>4949</v>
       </c>
       <c r="N23" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3181,7 +3181,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3217,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1BF4BE-3EA0-4320-81CE-E7909DB035D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AB971-F159-4837-8976-C581D4F889CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,10 +4274,10 @@
         <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1317</v>
@@ -4286,13 +4286,13 @@
         <v>1423478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2103</v>
@@ -4301,13 +4301,13 @@
         <v>2289040</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4322,13 @@
         <v>2561217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1981</v>
@@ -4337,13 +4337,13 @@
         <v>2134831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4404</v>
@@ -4352,13 +4352,13 @@
         <v>4696048</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AE3494-396D-4B88-861E-A2129E1ACECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17520A0-FE29-428F-A42A-D1C9A2AFA963}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4560,13 @@
         <v>15691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4575,13 +4575,13 @@
         <v>43235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -4590,13 +4590,13 @@
         <v>58926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4611,13 @@
         <v>403772</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>360</v>
@@ -4626,13 +4626,13 @@
         <v>352520</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>739</v>
@@ -4641,13 +4641,13 @@
         <v>756292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4715,13 @@
         <v>46111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4730,13 +4730,13 @@
         <v>82919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4745,13 +4745,13 @@
         <v>129029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4766,13 @@
         <v>544385</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>495</v>
@@ -4781,13 +4781,13 @@
         <v>480625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4796,13 +4796,13 @@
         <v>1025011</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4870,13 @@
         <v>67953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4885,13 +4885,13 @@
         <v>115402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4900,13 +4900,13 @@
         <v>183355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4921,13 @@
         <v>601144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -4936,13 +4936,13 @@
         <v>545984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>1122</v>
@@ -4951,13 +4951,13 @@
         <v>1147128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5025,13 @@
         <v>123521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5040,10 +5040,10 @@
         <v>177715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>330</v>
@@ -5058,10 +5058,10 @@
         <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5076,13 @@
         <v>522527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5091,28 +5091,28 @@
         <v>471362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>908</v>
       </c>
       <c r="N14" s="7">
-        <v>993889</v>
+        <v>993890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5154,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5180,13 +5180,13 @@
         <v>165574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -5195,13 +5195,13 @@
         <v>260201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>378</v>
@@ -5210,13 +5210,13 @@
         <v>425774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5231,13 @@
         <v>312344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -5246,13 +5246,13 @@
         <v>236648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -5261,13 +5261,13 @@
         <v>548993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5335,13 @@
         <v>360117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -5350,13 +5350,13 @@
         <v>554365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>848</v>
@@ -5365,13 +5365,13 @@
         <v>914482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5386,13 @@
         <v>231211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>193</v>
@@ -5401,13 +5401,13 @@
         <v>223566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -5416,13 +5416,13 @@
         <v>454777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5490,13 @@
         <v>778966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1101</v>
@@ -5505,13 +5505,13 @@
         <v>1233836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1870</v>
@@ -5520,13 +5520,13 @@
         <v>2012802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5541,13 @@
         <v>2615384</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2237</v>
@@ -5556,13 +5556,13 @@
         <v>2310706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>4699</v>
@@ -5571,13 +5571,13 @@
         <v>4926090</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F94120E-4021-4A63-B2E7-94FDE5D62711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277BB25C-B795-4914-8D23-0165A5FCD5C3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5779,13 @@
         <v>32453</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5794,13 +5794,13 @@
         <v>49228</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5809,13 +5809,13 @@
         <v>81681</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5830,13 @@
         <v>345226</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>180</v>
@@ -5845,13 +5845,13 @@
         <v>305729</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5860,13 +5860,13 @@
         <v>650955</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5934,13 @@
         <v>50066</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5949,13 +5949,13 @@
         <v>91820</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -5964,13 +5964,13 @@
         <v>141887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5985,13 @@
         <v>378330</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -6000,13 +6000,13 @@
         <v>407395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -6015,13 +6015,13 @@
         <v>785724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6089,13 @@
         <v>80784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
@@ -6104,13 +6104,13 @@
         <v>129436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -6119,13 +6119,13 @@
         <v>210220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6140,13 @@
         <v>476468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -6155,13 +6155,13 @@
         <v>481011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1128</v>
@@ -6170,13 +6170,13 @@
         <v>957479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6244,13 @@
         <v>180098</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>385</v>
@@ -6259,13 +6259,13 @@
         <v>256260</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>556</v>
@@ -6274,13 +6274,13 @@
         <v>436358</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6295,13 @@
         <v>543892</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>756</v>
@@ -6310,28 +6310,28 @@
         <v>491001</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1250</v>
       </c>
       <c r="N14" s="7">
-        <v>1034894</v>
+        <v>1034893</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,7 +6373,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6399,13 +6399,13 @@
         <v>251518</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -6414,13 +6414,13 @@
         <v>308829</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -6429,13 +6429,13 @@
         <v>560347</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6450,13 @@
         <v>348639</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>482</v>
@@ -6465,13 +6465,13 @@
         <v>288234</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>868</v>
@@ -6480,13 +6480,13 @@
         <v>636873</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6554,13 @@
         <v>416672</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>1281</v>
@@ -6569,13 +6569,13 @@
         <v>788396</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>1911</v>
@@ -6584,13 +6584,13 @@
         <v>1205068</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,16 +6602,16 @@
         <v>398</v>
       </c>
       <c r="D20" s="7">
-        <v>281082</v>
+        <v>281083</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
@@ -6620,13 +6620,13 @@
         <v>238241</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
@@ -6635,13 +6635,13 @@
         <v>519324</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6709,13 +6709,13 @@
         <v>1011591</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>2479</v>
@@ -6724,28 +6724,28 @@
         <v>1623970</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>3686</v>
       </c>
       <c r="N22" s="7">
-        <v>2635562</v>
+        <v>2635561</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,10 +6760,10 @@
         <v>2373637</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>509</v>
@@ -6838,7 +6838,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531F897F-413E-409D-B11F-C0B6860DF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB0B31A-2DA9-4B86-A59A-ADB101203BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69FB6E9-A72C-4CFB-B688-B5280105652D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A641432-BB6E-4D89-8413-2F6F68D255EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="524">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,52%</t>
   </si>
   <si>
     <t>5,24%</t>
@@ -149,19 +149,19 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>96,28%</t>
@@ -170,25 +170,25 @@
     <t>94,76%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,48%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>34,16%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>53,29%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,873 +482,900 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
   </si>
   <si>
     <t>59,17%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>7,95%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
     <t>81,95%</t>
   </si>
   <si>
@@ -1356,9 +1383,6 @@
   </si>
   <si>
     <t>78,8%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
   </si>
   <si>
     <t>82,36%</t>
@@ -1998,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200D44BE-A988-445E-A0EC-0DDECFED6B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827EA8F-6395-4E08-B50E-46FE830621EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3100,7 +3124,7 @@
         <v>2630</v>
       </c>
       <c r="D23" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3151,7 +3175,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3217,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7AB971-F159-4837-8976-C581D4F889CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA62444-FFFF-4BFD-AA27-4EF9A32D5D74}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4436,7 +4460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17520A0-FE29-428F-A42A-D1C9A2AFA963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52F859E-CF9E-44AC-A36F-C5BD57AE9D3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5028,10 +5052,10 @@
         <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5040,13 +5064,13 @@
         <v>177715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -5055,13 +5079,13 @@
         <v>301236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5100,13 @@
         <v>522527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5091,28 +5115,28 @@
         <v>471362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>908</v>
       </c>
       <c r="N14" s="7">
-        <v>993890</v>
+        <v>993889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5178,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5180,13 +5204,13 @@
         <v>165574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -5195,13 +5219,13 @@
         <v>260201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>378</v>
@@ -5210,13 +5234,13 @@
         <v>425774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5255,13 @@
         <v>312344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -5246,13 +5270,13 @@
         <v>236648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -5261,13 +5285,13 @@
         <v>548993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5359,13 @@
         <v>360117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -5350,13 +5374,13 @@
         <v>554365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>848</v>
@@ -5365,13 +5389,13 @@
         <v>914482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5410,13 @@
         <v>231211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>193</v>
@@ -5401,13 +5425,13 @@
         <v>223566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -5416,13 +5440,13 @@
         <v>454777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5514,13 @@
         <v>778966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>1101</v>
@@ -5505,13 +5529,13 @@
         <v>1233836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>1870</v>
@@ -5520,13 +5544,13 @@
         <v>2012802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5565,13 @@
         <v>2615384</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>2237</v>
@@ -5556,13 +5580,13 @@
         <v>2310706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M23" s="7">
         <v>4699</v>
@@ -5571,13 +5595,13 @@
         <v>4926090</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277BB25C-B795-4914-8D23-0165A5FCD5C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2A0493-1267-4ED0-B2A6-92ED180EFE2F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5696,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5803,13 @@
         <v>32453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5794,13 +5818,13 @@
         <v>49228</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5809,13 +5833,13 @@
         <v>81681</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5854,13 @@
         <v>345226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>180</v>
@@ -5845,13 +5869,13 @@
         <v>305729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5860,13 +5884,13 @@
         <v>650955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5958,13 @@
         <v>50066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5949,13 +5973,13 @@
         <v>91820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -5964,13 +5988,13 @@
         <v>141887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6009,13 @@
         <v>378330</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -6000,13 +6024,13 @@
         <v>407395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -6015,13 +6039,13 @@
         <v>785724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6113,13 @@
         <v>80784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
@@ -6104,13 +6128,13 @@
         <v>129436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -6119,13 +6143,13 @@
         <v>210220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6164,13 @@
         <v>476468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -6155,13 +6179,13 @@
         <v>481011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
         <v>1128</v>
@@ -6170,13 +6194,13 @@
         <v>957479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6268,13 @@
         <v>180098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H13" s="7">
         <v>385</v>
@@ -6259,13 +6283,13 @@
         <v>256260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M13" s="7">
         <v>556</v>
@@ -6274,13 +6298,13 @@
         <v>436358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6319,13 @@
         <v>543892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
         <v>756</v>
@@ -6310,13 +6334,13 @@
         <v>491001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
         <v>1250</v>
@@ -6325,13 +6349,13 @@
         <v>1034893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6423,13 @@
         <v>251518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -6414,13 +6438,13 @@
         <v>308829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -6429,13 +6453,13 @@
         <v>560347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6474,13 @@
         <v>348639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>482</v>
@@ -6465,13 +6489,13 @@
         <v>288234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M17" s="7">
         <v>868</v>
@@ -6480,13 +6504,13 @@
         <v>636873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6578,13 @@
         <v>416672</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>1281</v>
@@ -6569,13 +6593,13 @@
         <v>788396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
         <v>1911</v>
@@ -6584,13 +6608,13 @@
         <v>1205068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6629,13 @@
         <v>281083</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
@@ -6620,13 +6644,13 @@
         <v>238241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
@@ -6635,13 +6659,13 @@
         <v>519324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6733,13 @@
         <v>1011591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>2479</v>
@@ -6724,13 +6748,13 @@
         <v>1623970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>3686</v>
@@ -6739,13 +6763,13 @@
         <v>2635561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6784,13 @@
         <v>2373637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H23" s="7">
         <v>2888</v>
@@ -6775,13 +6799,13 @@
         <v>2211611</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="M23" s="7">
         <v>5057</v>
@@ -6790,13 +6814,13 @@
         <v>4585247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB0B31A-2DA9-4B86-A59A-ADB101203BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEADD97-82ED-441B-B5D5-71EF05C30EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A641432-BB6E-4D89-8413-2F6F68D255EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F72FE1-8C5D-442C-BAD8-E86EC986B762}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -107,19 +107,19 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -128,7 +128,7 @@
     <t>91,73%</t>
   </si>
   <si>
-    <t>94,69%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>34,16%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,856 +368,847 @@
     <t>53,29%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>87,99%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>43,68%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
   </si>
   <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
     <t>36,56%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>65,19%</t>
@@ -1226,16 +1217,13 @@
     <t>63,44%</t>
   </si>
   <si>
-    <t>66,71%</t>
-  </si>
-  <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1244,61 +1232,61 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>8,13%</t>
   </si>
   <si>
     <t>16,13%</t>
@@ -1307,19 +1295,19 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>88,31%</t>
@@ -1328,289 +1316,277 @@
     <t>83,87%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>91,87%</t>
   </si>
   <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>17,64%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>82,36%</t>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>34,29%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>65,71%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>41,91%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>58,09%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>69,88%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>27,98%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>72,02%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827EA8F-6395-4E08-B50E-46FE830621EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087E065-5022-45B9-9AE1-4C7B29D54876}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3124,7 +3100,7 @@
         <v>2630</v>
       </c>
       <c r="D23" s="7">
-        <v>2704442</v>
+        <v>2704443</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3154,7 +3130,7 @@
         <v>4949</v>
       </c>
       <c r="N23" s="7">
-        <v>5077127</v>
+        <v>5077126</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3175,7 +3151,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3205,7 +3181,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3241,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA62444-FFFF-4BFD-AA27-4EF9A32D5D74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5491DE60-15CD-4E51-92D7-BDE2FBB06769}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,10 +4274,10 @@
         <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1317</v>
@@ -4310,13 +4286,13 @@
         <v>1423478</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2103</v>
@@ -4325,13 +4301,13 @@
         <v>2289040</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4322,13 @@
         <v>2561217</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>1981</v>
@@ -4361,13 +4337,13 @@
         <v>2134831</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4404</v>
@@ -4376,13 +4352,13 @@
         <v>4696048</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52F859E-CF9E-44AC-A36F-C5BD57AE9D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6578B51A-16A9-415B-8C01-81802274F168}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4477,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4584,13 +4560,13 @@
         <v>15691</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4599,13 +4575,13 @@
         <v>43235</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -4614,13 +4590,13 @@
         <v>58926</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4611,13 @@
         <v>403772</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>360</v>
@@ -4650,13 +4626,13 @@
         <v>352520</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>739</v>
@@ -4665,13 +4641,13 @@
         <v>756292</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4715,13 @@
         <v>46111</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4754,13 +4730,13 @@
         <v>82919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4769,13 +4745,13 @@
         <v>129029</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4766,13 @@
         <v>544385</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>495</v>
@@ -4805,13 +4781,13 @@
         <v>480625</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4820,13 +4796,13 @@
         <v>1025011</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4870,13 @@
         <v>67953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4909,13 +4885,13 @@
         <v>115402</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4924,13 +4900,13 @@
         <v>183355</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4921,13 @@
         <v>601144</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -4960,13 +4936,13 @@
         <v>545984</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>1122</v>
@@ -4975,13 +4951,13 @@
         <v>1147128</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5025,13 @@
         <v>123521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5064,13 +5040,13 @@
         <v>177715</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -5079,13 +5055,13 @@
         <v>301236</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5076,13 @@
         <v>522527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5115,13 +5091,13 @@
         <v>471362</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>908</v>
@@ -5130,13 +5106,13 @@
         <v>993889</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5180,13 @@
         <v>165574</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -5219,13 +5195,13 @@
         <v>260201</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>378</v>
@@ -5234,13 +5210,13 @@
         <v>425774</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5231,13 @@
         <v>312344</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -5270,13 +5246,13 @@
         <v>236648</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -5285,13 +5261,13 @@
         <v>548993</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5335,13 @@
         <v>360117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -5374,13 +5350,13 @@
         <v>554365</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>848</v>
@@ -5389,13 +5365,13 @@
         <v>914482</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5386,13 @@
         <v>231211</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>193</v>
@@ -5425,13 +5401,13 @@
         <v>223566</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -5440,13 +5416,13 @@
         <v>454777</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5490,13 @@
         <v>778966</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>1101</v>
@@ -5529,13 +5505,13 @@
         <v>1233836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>1870</v>
@@ -5544,13 +5520,13 @@
         <v>2012802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5541,13 @@
         <v>2615384</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>2237</v>
@@ -5580,13 +5556,13 @@
         <v>2310706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
         <v>4699</v>
@@ -5595,13 +5571,13 @@
         <v>4926090</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2A0493-1267-4ED0-B2A6-92ED180EFE2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08708675-8EB3-4D7B-8227-BBA631FBF5EB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5696,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5803,13 +5779,13 @@
         <v>32453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5818,13 +5794,13 @@
         <v>49228</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5833,13 +5809,13 @@
         <v>81681</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5830,13 @@
         <v>345226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>180</v>
@@ -5869,13 +5845,13 @@
         <v>305729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5884,13 +5860,13 @@
         <v>650955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5934,13 @@
         <v>50066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5973,13 +5949,13 @@
         <v>91820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -5988,13 +5964,13 @@
         <v>141887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5985,13 @@
         <v>378330</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -6024,13 +6000,13 @@
         <v>407395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -6039,13 +6015,13 @@
         <v>785724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6089,13 @@
         <v>80784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
@@ -6128,13 +6104,13 @@
         <v>129436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -6143,13 +6119,13 @@
         <v>210220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6140,13 @@
         <v>476468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -6179,13 +6155,13 @@
         <v>481011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
         <v>1128</v>
@@ -6194,13 +6170,13 @@
         <v>957479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>451</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6244,13 @@
         <v>180098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>385</v>
@@ -6283,13 +6259,13 @@
         <v>256260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>556</v>
@@ -6298,13 +6274,13 @@
         <v>436358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6295,13 @@
         <v>543892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>756</v>
@@ -6334,28 +6310,28 @@
         <v>491001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1250</v>
       </c>
       <c r="N14" s="7">
-        <v>1034893</v>
+        <v>1034894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,7 +6373,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6423,13 +6399,13 @@
         <v>251518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -6438,13 +6414,13 @@
         <v>308829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -6453,13 +6429,13 @@
         <v>560347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6450,13 @@
         <v>348639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>482</v>
@@ -6489,13 +6465,13 @@
         <v>288234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>868</v>
@@ -6504,13 +6480,13 @@
         <v>636873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6554,13 @@
         <v>416672</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>1281</v>
@@ -6593,13 +6569,13 @@
         <v>788396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>1911</v>
@@ -6608,13 +6584,13 @@
         <v>1205068</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,16 +6602,16 @@
         <v>398</v>
       </c>
       <c r="D20" s="7">
-        <v>281083</v>
+        <v>281082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
@@ -6644,13 +6620,13 @@
         <v>238241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
@@ -6659,13 +6635,13 @@
         <v>519324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6653,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6733,13 +6709,13 @@
         <v>1011591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>2479</v>
@@ -6748,28 +6724,28 @@
         <v>1623970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>3686</v>
       </c>
       <c r="N22" s="7">
-        <v>2635561</v>
+        <v>2635562</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6760,13 @@
         <v>2373637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>516</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>2888</v>
@@ -6799,13 +6775,13 @@
         <v>2211611</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>5057</v>
@@ -6814,13 +6790,13 @@
         <v>4585247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6838,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEADD97-82ED-441B-B5D5-71EF05C30EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C8FF24-3C31-4AA5-A1DE-38F4DB038E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F72FE1-8C5D-442C-BAD8-E86EC986B762}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48A03581-E0EC-4913-89BD-7F1FDB335F33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="583">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,72%</t>
@@ -191,7 +191,7 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>8,39%</t>
@@ -248,7 +248,7 @@
     <t>90,18%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,22%</t>
@@ -305,7 +305,7 @@
     <t>82,97%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>34,16%</t>
@@ -362,61 +362,118 @@
     <t>63,93%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>17,46%</t>
@@ -749,58 +806,94 @@
     <t>54,52%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>25,26%</t>
@@ -1040,9 +1133,6 @@
     <t>21,14%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
     <t>80,88%</t>
   </si>
   <si>
@@ -1064,9 +1154,6 @@
     <t>76,74%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
     <t>78,86%</t>
   </si>
   <si>
@@ -1124,99 +1211,159 @@
     <t>59,5%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
     <t>70,99%</t>
   </si>
   <si>
@@ -1229,364 +1376,418 @@
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087E065-5022-45B9-9AE1-4C7B29D54876}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512BE8F5-EF03-4D6B-9297-CDF6C181EB65}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2891,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="D19" s="7">
-        <v>267766</v>
+        <v>129842</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2906,10 +3107,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="I19" s="7">
-        <v>467847</v>
+        <v>223586</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2921,10 +3122,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>734</v>
+        <v>378</v>
       </c>
       <c r="N19" s="7">
-        <v>735613</v>
+        <v>353428</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2942,10 +3143,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="D20" s="7">
-        <v>234700</v>
+        <v>162741</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2957,10 +3158,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="I20" s="7">
-        <v>208995</v>
+        <v>119348</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2972,10 +3173,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>450</v>
+        <v>296</v>
       </c>
       <c r="N20" s="7">
-        <v>443695</v>
+        <v>282089</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2993,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3008,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3023,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3040,55 +3241,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>584</v>
+        <v>144</v>
       </c>
       <c r="D22" s="7">
-        <v>572101</v>
+        <v>137924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>978</v>
+        <v>212</v>
       </c>
       <c r="I22" s="7">
-        <v>1006514</v>
+        <v>244260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="N22" s="7">
-        <v>1578614</v>
+        <v>382184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,49 +3298,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2630</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7">
-        <v>2704443</v>
+        <v>71959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2319</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>2372684</v>
+        <v>89648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4949</v>
+        <v>154</v>
       </c>
       <c r="N23" s="7">
-        <v>5077126</v>
+        <v>161607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,63 +3349,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>584</v>
+      </c>
+      <c r="D25" s="7">
+        <v>572101</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>978</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1006514</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1562</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1578614</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2630</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2704442</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2319</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2372683</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4949</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5077127</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3217,8 +3574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5491DE60-15CD-4E51-92D7-BDE2FBB06769}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB041E7-2045-42B6-B0B4-080C54EB89EB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3234,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3698,13 @@
         <v>23763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -3356,13 +3713,13 @@
         <v>68725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -3371,13 +3728,13 @@
         <v>92488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3749,13 @@
         <v>430383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>353</v>
@@ -3407,13 +3764,13 @@
         <v>361505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -3422,13 +3779,13 @@
         <v>791888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3853,13 @@
         <v>67255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>113</v>
@@ -3511,13 +3868,13 @@
         <v>123674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -3526,13 +3883,13 @@
         <v>190928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3904,13 @@
         <v>619832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -3562,13 +3919,13 @@
         <v>486581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
@@ -3577,13 +3934,13 @@
         <v>1106414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +4008,13 @@
         <v>86187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>162</v>
@@ -3666,13 +4023,13 @@
         <v>172040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -3681,13 +4038,13 @@
         <v>258227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +4059,13 @@
         <v>595676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>505</v>
@@ -3717,13 +4074,13 @@
         <v>538810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>1077</v>
@@ -3732,13 +4089,13 @@
         <v>1134485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +4163,13 @@
         <v>108073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -3821,13 +4178,13 @@
         <v>204084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -3836,13 +4193,13 @@
         <v>312157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +4214,13 @@
         <v>506544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>360</v>
@@ -3872,13 +4229,13 @@
         <v>412115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>811</v>
@@ -3887,13 +4244,13 @@
         <v>918659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4318,13 @@
         <v>175346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -3976,13 +4333,13 @@
         <v>253361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>394</v>
@@ -3991,13 +4348,13 @@
         <v>428708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4369,13 @@
         <v>254083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -4027,13 +4384,13 @@
         <v>194439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>405</v>
@@ -4042,13 +4399,13 @@
         <v>448521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4467,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>362</v>
+        <v>187</v>
       </c>
       <c r="D19" s="7">
-        <v>404937</v>
+        <v>205726</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>562</v>
+        <v>255</v>
       </c>
       <c r="I19" s="7">
-        <v>601594</v>
+        <v>261306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>924</v>
+        <v>442</v>
       </c>
       <c r="N19" s="7">
-        <v>1006531</v>
+        <v>467031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4518,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>154700</v>
+        <v>104060</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I20" s="7">
-        <v>141381</v>
+        <v>92690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="N20" s="7">
-        <v>296081</v>
+        <v>196751</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4227,10 +4584,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4242,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4259,55 +4616,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>786</v>
+        <v>175</v>
       </c>
       <c r="D22" s="7">
-        <v>865562</v>
+        <v>199212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
-        <v>1317</v>
+        <v>307</v>
       </c>
       <c r="I22" s="7">
-        <v>1423478</v>
+        <v>340288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>2103</v>
+        <v>482</v>
       </c>
       <c r="N22" s="7">
-        <v>2289040</v>
+        <v>539500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4673,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2423</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
-        <v>2561217</v>
+        <v>50639</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
-        <v>1981</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7">
-        <v>2134831</v>
+        <v>48691</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>4404</v>
+        <v>90</v>
       </c>
       <c r="N23" s="7">
-        <v>4696048</v>
+        <v>99330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,63 +4724,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>786</v>
+      </c>
+      <c r="D25" s="7">
+        <v>865562</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1317</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1423478</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2103</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2289040</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2423</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2561217</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1981</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2134831</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4404</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4696048</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4436,8 +4949,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6578B51A-16A9-415B-8C01-81802274F168}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8CB486-E701-44F1-BC24-F697BE71F462}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4453,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +5073,13 @@
         <v>15691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4575,13 +5088,13 @@
         <v>43235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -4590,13 +5103,13 @@
         <v>58926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +5124,13 @@
         <v>403772</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>360</v>
@@ -4626,13 +5139,13 @@
         <v>352520</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>739</v>
@@ -4641,13 +5154,13 @@
         <v>756292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +5228,13 @@
         <v>46111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4730,13 +5243,13 @@
         <v>82919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4745,13 +5258,13 @@
         <v>129029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +5279,13 @@
         <v>544385</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>495</v>
@@ -4781,13 +5294,13 @@
         <v>480625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1017</v>
@@ -4796,13 +5309,13 @@
         <v>1025011</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +5383,13 @@
         <v>67953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4885,13 +5398,13 @@
         <v>115402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -4900,13 +5413,13 @@
         <v>183355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +5434,13 @@
         <v>601144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>549</v>
@@ -4936,13 +5449,13 @@
         <v>545984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>1122</v>
@@ -4951,13 +5464,13 @@
         <v>1147128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5538,13 @@
         <v>123521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5040,13 +5553,13 @@
         <v>177715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -5055,13 +5568,13 @@
         <v>301236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5589,13 @@
         <v>522527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5091,13 +5604,13 @@
         <v>471362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>908</v>
@@ -5106,13 +5619,13 @@
         <v>993889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5693,13 @@
         <v>165574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>231</v>
@@ -5195,13 +5708,13 @@
         <v>260201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>378</v>
@@ -5210,13 +5723,13 @@
         <v>425774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5744,13 @@
         <v>312344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -5246,13 +5759,13 @@
         <v>236648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -5261,13 +5774,13 @@
         <v>548993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,49 +5842,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>386</v>
+        <v>171</v>
       </c>
       <c r="D19" s="7">
-        <v>360117</v>
+        <v>175482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>554365</v>
+        <v>243527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>848</v>
+        <v>400</v>
       </c>
       <c r="N19" s="7">
-        <v>914482</v>
+        <v>419008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,49 +5893,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="D20" s="7">
-        <v>231211</v>
+        <v>158848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="I20" s="7">
-        <v>223566</v>
+        <v>134235</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>434</v>
+        <v>279</v>
       </c>
       <c r="N20" s="7">
-        <v>454777</v>
+        <v>293084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5446,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5461,10 +5974,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5478,55 +5991,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>769</v>
+        <v>215</v>
       </c>
       <c r="D22" s="7">
-        <v>778966</v>
+        <v>184635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1101</v>
+        <v>233</v>
       </c>
       <c r="I22" s="7">
-        <v>1233836</v>
+        <v>310838</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>1870</v>
+        <v>448</v>
       </c>
       <c r="N22" s="7">
-        <v>2012802</v>
+        <v>495474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,49 +6048,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2462</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>2615384</v>
+        <v>72363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>2237</v>
+        <v>68</v>
       </c>
       <c r="I23" s="7">
-        <v>2310706</v>
+        <v>89331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>4699</v>
+        <v>155</v>
       </c>
       <c r="N23" s="7">
-        <v>4926090</v>
+        <v>161693</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,63 +6099,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>769</v>
+      </c>
+      <c r="D25" s="7">
+        <v>778966</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1233836</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1870</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2012802</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2462</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2615384</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2237</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2310706</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4699</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4926090</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5655,8 +6324,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08708675-8EB3-4D7B-8227-BBA631FBF5EB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71074853-9D83-4432-9E5B-7D17BBFC1CF8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5672,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5776,46 +6445,46 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>32453</v>
+        <v>33796</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>49228</v>
+        <v>42624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>81681</v>
+        <v>76419</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,46 +6496,46 @@
         <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>345226</v>
+        <v>366191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>180</v>
       </c>
       <c r="I5" s="7">
-        <v>305729</v>
+        <v>270576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>650955</v>
+        <v>636768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +6547,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5893,7 +6562,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5908,7 +6577,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5931,46 +6600,46 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>50066</v>
+        <v>51505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>91820</v>
+        <v>84230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
       </c>
       <c r="N7" s="7">
-        <v>141887</v>
+        <v>135734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,46 +6651,46 @@
         <v>266</v>
       </c>
       <c r="D8" s="7">
-        <v>378330</v>
+        <v>372042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
       </c>
       <c r="I8" s="7">
-        <v>407395</v>
+        <v>427863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
       </c>
       <c r="N8" s="7">
-        <v>785724</v>
+        <v>799906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6702,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6048,7 +6717,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6063,7 +6732,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6086,46 +6755,46 @@
         <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>80784</v>
+        <v>77370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>188</v>
       </c>
       <c r="I10" s="7">
-        <v>129436</v>
+        <v>121025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
       </c>
       <c r="N10" s="7">
-        <v>210220</v>
+        <v>198394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,46 +6806,46 @@
         <v>468</v>
       </c>
       <c r="D11" s="7">
-        <v>476468</v>
+        <v>458968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
       </c>
       <c r="I11" s="7">
-        <v>481011</v>
+        <v>470977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M11" s="7">
         <v>1128</v>
       </c>
       <c r="N11" s="7">
-        <v>957479</v>
+        <v>929946</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6857,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6203,7 +6872,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6218,7 +6887,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6241,46 +6910,46 @@
         <v>171</v>
       </c>
       <c r="D13" s="7">
-        <v>180098</v>
+        <v>172157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>385</v>
       </c>
       <c r="I13" s="7">
-        <v>256260</v>
+        <v>235686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>556</v>
       </c>
       <c r="N13" s="7">
-        <v>436358</v>
+        <v>407843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,46 +6961,46 @@
         <v>494</v>
       </c>
       <c r="D14" s="7">
-        <v>543892</v>
+        <v>715629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>756</v>
       </c>
       <c r="I14" s="7">
-        <v>491001</v>
+        <v>477195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>1250</v>
       </c>
       <c r="N14" s="7">
-        <v>1034894</v>
+        <v>1192824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +7012,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6358,7 +7027,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6373,7 +7042,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6396,46 +7065,46 @@
         <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>251518</v>
+        <v>236925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
       </c>
       <c r="I16" s="7">
-        <v>308829</v>
+        <v>283409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
       </c>
       <c r="N16" s="7">
-        <v>560347</v>
+        <v>520334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,46 +7116,46 @@
         <v>386</v>
       </c>
       <c r="D17" s="7">
-        <v>348639</v>
+        <v>324309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>482</v>
       </c>
       <c r="I17" s="7">
-        <v>288234</v>
+        <v>264496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>868</v>
       </c>
       <c r="N17" s="7">
-        <v>636873</v>
+        <v>588805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +7167,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6513,7 +7182,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6528,7 +7197,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6548,49 +7217,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>630</v>
+        <v>306</v>
       </c>
       <c r="D19" s="7">
-        <v>416672</v>
+        <v>196215</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
-        <v>1281</v>
+        <v>556</v>
       </c>
       <c r="I19" s="7">
-        <v>788396</v>
+        <v>474296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
-        <v>1911</v>
+        <v>862</v>
       </c>
       <c r="N19" s="7">
-        <v>1205068</v>
+        <v>670511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,49 +7268,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D20" s="7">
-        <v>281082</v>
+        <v>171950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="I20" s="7">
-        <v>238241</v>
+        <v>134072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
-        <v>825</v>
+        <v>535</v>
       </c>
       <c r="N20" s="7">
-        <v>519324</v>
+        <v>306022</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,10 +7319,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6665,10 +7334,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6680,10 +7349,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6697,55 +7366,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1207</v>
+        <v>324</v>
       </c>
       <c r="D22" s="7">
-        <v>1011591</v>
+        <v>193364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
-        <v>2479</v>
+        <v>725</v>
       </c>
       <c r="I22" s="7">
-        <v>1623970</v>
+        <v>345399</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
-        <v>3686</v>
+        <v>1049</v>
       </c>
       <c r="N22" s="7">
-        <v>2635562</v>
+        <v>538763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,49 +7423,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2169</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7">
-        <v>2373637</v>
+        <v>89395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
-        <v>2888</v>
+        <v>156</v>
       </c>
       <c r="I23" s="7">
-        <v>2211611</v>
+        <v>80432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
-        <v>5057</v>
+        <v>290</v>
       </c>
       <c r="N23" s="7">
-        <v>4585247</v>
+        <v>169827</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,63 +7474,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1207</v>
+      </c>
+      <c r="D25" s="7">
+        <v>961331</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2479</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1586668</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3686</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2547999</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2169</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2498486</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2888</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2125612</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5057</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4624098</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
